--- a/2022/Samsung/February/07.02.2022/SAMSUNG Bank Statement FEB-2022.xlsx
+++ b/2022/Samsung/February/07.02.2022/SAMSUNG Bank Statement FEB-2022.xlsx
@@ -2716,6 +2716,42 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="34" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2815,6 +2851,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2831,51 +2876,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="33" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="33" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="33" fillId="34" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3335,33 +3335,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="305"/>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="305"/>
+      <c r="A1" s="317"/>
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
+      <c r="D1" s="317"/>
+      <c r="E1" s="317"/>
+      <c r="F1" s="317"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="306"/>
-      <c r="B2" s="303" t="s">
+      <c r="A2" s="318"/>
+      <c r="B2" s="315" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="303"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="303"/>
+      <c r="C2" s="315"/>
+      <c r="D2" s="315"/>
+      <c r="E2" s="315"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="306"/>
-      <c r="B3" s="304" t="s">
+      <c r="A3" s="318"/>
+      <c r="B3" s="316" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="316"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="306"/>
+      <c r="A4" s="318"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3379,7 +3379,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="306"/>
+      <c r="A5" s="318"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3397,7 +3397,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="306"/>
+      <c r="A6" s="318"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3409,7 +3409,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="306"/>
+      <c r="A7" s="318"/>
       <c r="B7" s="26" t="s">
         <v>46</v>
       </c>
@@ -3428,7 +3428,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="306"/>
+      <c r="A8" s="318"/>
       <c r="B8" s="26" t="s">
         <v>47</v>
       </c>
@@ -3447,7 +3447,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="306"/>
+      <c r="A9" s="318"/>
       <c r="B9" s="26" t="s">
         <v>49</v>
       </c>
@@ -3466,7 +3466,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="306"/>
+      <c r="A10" s="318"/>
       <c r="B10" s="26" t="s">
         <v>50</v>
       </c>
@@ -3485,7 +3485,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="306"/>
+      <c r="A11" s="318"/>
       <c r="B11" s="26" t="s">
         <v>51</v>
       </c>
@@ -3504,7 +3504,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="306"/>
+      <c r="A12" s="318"/>
       <c r="B12" s="26" t="s">
         <v>52</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="306"/>
+      <c r="A13" s="318"/>
       <c r="B13" s="26" t="s">
         <v>53</v>
       </c>
@@ -3542,7 +3542,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="306"/>
+      <c r="A14" s="318"/>
       <c r="B14" s="26" t="s">
         <v>54</v>
       </c>
@@ -3561,7 +3561,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="306"/>
+      <c r="A15" s="318"/>
       <c r="B15" s="26" t="s">
         <v>55</v>
       </c>
@@ -3580,7 +3580,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="306"/>
+      <c r="A16" s="318"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -3593,7 +3593,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="306"/>
+      <c r="A17" s="318"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -3606,7 +3606,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="306"/>
+      <c r="A18" s="318"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -3619,7 +3619,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="306"/>
+      <c r="A19" s="318"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -3632,7 +3632,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="306"/>
+      <c r="A20" s="318"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -3645,7 +3645,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="306"/>
+      <c r="A21" s="318"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -3658,7 +3658,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="306"/>
+      <c r="A22" s="318"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -3671,7 +3671,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="306"/>
+      <c r="A23" s="318"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -3684,7 +3684,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="306"/>
+      <c r="A24" s="318"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -3697,7 +3697,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="306"/>
+      <c r="A25" s="318"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -3710,7 +3710,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="306"/>
+      <c r="A26" s="318"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -3723,7 +3723,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="306"/>
+      <c r="A27" s="318"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -3736,7 +3736,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="306"/>
+      <c r="A28" s="318"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -3749,7 +3749,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="306"/>
+      <c r="A29" s="318"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -3762,7 +3762,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="306"/>
+      <c r="A30" s="318"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -3775,7 +3775,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="306"/>
+      <c r="A31" s="318"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -3788,7 +3788,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="306"/>
+      <c r="A32" s="318"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -3801,7 +3801,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="306"/>
+      <c r="A33" s="318"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -3814,7 +3814,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="306"/>
+      <c r="A34" s="318"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -3827,7 +3827,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="306"/>
+      <c r="A35" s="318"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -3840,7 +3840,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="306"/>
+      <c r="A36" s="318"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -3853,7 +3853,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="306"/>
+      <c r="A37" s="318"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -3866,7 +3866,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="306"/>
+      <c r="A38" s="318"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -3879,7 +3879,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="306"/>
+      <c r="A39" s="318"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -3892,7 +3892,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="306"/>
+      <c r="A40" s="318"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -3905,7 +3905,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="306"/>
+      <c r="A41" s="318"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -3918,7 +3918,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="306"/>
+      <c r="A42" s="318"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -3931,7 +3931,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="306"/>
+      <c r="A43" s="318"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -3944,7 +3944,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="306"/>
+      <c r="A44" s="318"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -3957,7 +3957,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="306"/>
+      <c r="A45" s="318"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -3970,7 +3970,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="306"/>
+      <c r="A46" s="318"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -3983,7 +3983,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="306"/>
+      <c r="A47" s="318"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -3996,7 +3996,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="306"/>
+      <c r="A48" s="318"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4009,7 +4009,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="306"/>
+      <c r="A49" s="318"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4022,7 +4022,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="306"/>
+      <c r="A50" s="318"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4035,7 +4035,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="306"/>
+      <c r="A51" s="318"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4048,7 +4048,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="306"/>
+      <c r="A52" s="318"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4061,7 +4061,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="306"/>
+      <c r="A53" s="318"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4074,7 +4074,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="306"/>
+      <c r="A54" s="318"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4087,7 +4087,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="306"/>
+      <c r="A55" s="318"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4099,7 +4099,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="306"/>
+      <c r="A56" s="318"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4111,7 +4111,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="306"/>
+      <c r="A57" s="318"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4123,7 +4123,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="306"/>
+      <c r="A58" s="318"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4135,7 +4135,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="306"/>
+      <c r="A59" s="318"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4147,7 +4147,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="306"/>
+      <c r="A60" s="318"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4159,7 +4159,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="306"/>
+      <c r="A61" s="318"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4171,7 +4171,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="306"/>
+      <c r="A62" s="318"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4183,7 +4183,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="306"/>
+      <c r="A63" s="318"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4195,7 +4195,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="306"/>
+      <c r="A64" s="318"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4207,7 +4207,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="306"/>
+      <c r="A65" s="318"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4219,7 +4219,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="306"/>
+      <c r="A66" s="318"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4231,7 +4231,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="306"/>
+      <c r="A67" s="318"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4243,7 +4243,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="306"/>
+      <c r="A68" s="318"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4255,7 +4255,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="306"/>
+      <c r="A69" s="318"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4267,7 +4267,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="306"/>
+      <c r="A70" s="318"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4279,7 +4279,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="306"/>
+      <c r="A71" s="318"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4291,7 +4291,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="306"/>
+      <c r="A72" s="318"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4303,7 +4303,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="306"/>
+      <c r="A73" s="318"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4315,7 +4315,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="306"/>
+      <c r="A74" s="318"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4327,7 +4327,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="306"/>
+      <c r="A75" s="318"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4339,7 +4339,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="306"/>
+      <c r="A76" s="318"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4351,7 +4351,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="306"/>
+      <c r="A77" s="318"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4363,7 +4363,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="306"/>
+      <c r="A78" s="318"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4375,7 +4375,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="306"/>
+      <c r="A79" s="318"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4387,7 +4387,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="306"/>
+      <c r="A80" s="318"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4399,7 +4399,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="306"/>
+      <c r="A81" s="318"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4411,7 +4411,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="306"/>
+      <c r="A82" s="318"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4423,7 +4423,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="306"/>
+      <c r="A83" s="318"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5030,33 +5030,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="305"/>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="305"/>
+      <c r="A1" s="317"/>
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
+      <c r="D1" s="317"/>
+      <c r="E1" s="317"/>
+      <c r="F1" s="317"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="306"/>
-      <c r="B2" s="303" t="s">
+      <c r="A2" s="318"/>
+      <c r="B2" s="315" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="303"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="303"/>
+      <c r="C2" s="315"/>
+      <c r="D2" s="315"/>
+      <c r="E2" s="315"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="306"/>
-      <c r="B3" s="304" t="s">
+      <c r="A3" s="318"/>
+      <c r="B3" s="316" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="316"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="306"/>
+      <c r="A4" s="318"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5074,7 +5074,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="306"/>
+      <c r="A5" s="318"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5092,7 +5092,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="306"/>
+      <c r="A6" s="318"/>
       <c r="B6" s="26"/>
       <c r="C6" s="252"/>
       <c r="D6" s="252"/>
@@ -5104,7 +5104,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="306"/>
+      <c r="A7" s="318"/>
       <c r="B7" s="26" t="s">
         <v>71</v>
       </c>
@@ -5122,7 +5122,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="306"/>
+      <c r="A8" s="318"/>
       <c r="B8" s="26" t="s">
         <v>91</v>
       </c>
@@ -5140,7 +5140,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="306"/>
+      <c r="A9" s="318"/>
       <c r="B9" s="26" t="s">
         <v>100</v>
       </c>
@@ -5158,7 +5158,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="306"/>
+      <c r="A10" s="318"/>
       <c r="B10" s="26" t="s">
         <v>107</v>
       </c>
@@ -5176,7 +5176,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="306"/>
+      <c r="A11" s="318"/>
       <c r="B11" s="26" t="s">
         <v>118</v>
       </c>
@@ -5194,7 +5194,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="306"/>
+      <c r="A12" s="318"/>
       <c r="B12" s="26"/>
       <c r="C12" s="252"/>
       <c r="D12" s="252"/>
@@ -5206,7 +5206,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="306"/>
+      <c r="A13" s="318"/>
       <c r="B13" s="26"/>
       <c r="C13" s="252"/>
       <c r="D13" s="252"/>
@@ -5218,7 +5218,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="306"/>
+      <c r="A14" s="318"/>
       <c r="B14" s="26"/>
       <c r="C14" s="252"/>
       <c r="D14" s="252"/>
@@ -5230,7 +5230,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="306"/>
+      <c r="A15" s="318"/>
       <c r="B15" s="26"/>
       <c r="C15" s="252"/>
       <c r="D15" s="252"/>
@@ -5242,7 +5242,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="306"/>
+      <c r="A16" s="318"/>
       <c r="B16" s="26"/>
       <c r="C16" s="252"/>
       <c r="D16" s="252"/>
@@ -5254,7 +5254,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="306"/>
+      <c r="A17" s="318"/>
       <c r="B17" s="26"/>
       <c r="C17" s="252"/>
       <c r="D17" s="252"/>
@@ -5266,7 +5266,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="306"/>
+      <c r="A18" s="318"/>
       <c r="B18" s="26"/>
       <c r="C18" s="252"/>
       <c r="D18" s="252"/>
@@ -5278,7 +5278,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="306"/>
+      <c r="A19" s="318"/>
       <c r="B19" s="26"/>
       <c r="C19" s="252"/>
       <c r="D19" s="255"/>
@@ -5290,7 +5290,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="306"/>
+      <c r="A20" s="318"/>
       <c r="B20" s="26"/>
       <c r="C20" s="252"/>
       <c r="D20" s="252"/>
@@ -5302,7 +5302,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="306"/>
+      <c r="A21" s="318"/>
       <c r="B21" s="26"/>
       <c r="C21" s="252"/>
       <c r="D21" s="252"/>
@@ -5314,7 +5314,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="306"/>
+      <c r="A22" s="318"/>
       <c r="B22" s="26"/>
       <c r="C22" s="252"/>
       <c r="D22" s="252"/>
@@ -5326,7 +5326,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="306"/>
+      <c r="A23" s="318"/>
       <c r="B23" s="26"/>
       <c r="C23" s="252"/>
       <c r="D23" s="252"/>
@@ -5338,7 +5338,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="306"/>
+      <c r="A24" s="318"/>
       <c r="B24" s="26"/>
       <c r="C24" s="252"/>
       <c r="D24" s="252"/>
@@ -5350,7 +5350,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="306"/>
+      <c r="A25" s="318"/>
       <c r="B25" s="26"/>
       <c r="C25" s="252"/>
       <c r="D25" s="252"/>
@@ -5362,7 +5362,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="306"/>
+      <c r="A26" s="318"/>
       <c r="B26" s="26"/>
       <c r="C26" s="252"/>
       <c r="D26" s="252"/>
@@ -5374,7 +5374,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="306"/>
+      <c r="A27" s="318"/>
       <c r="B27" s="26"/>
       <c r="C27" s="252"/>
       <c r="D27" s="252"/>
@@ -5386,7 +5386,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="306"/>
+      <c r="A28" s="318"/>
       <c r="B28" s="26"/>
       <c r="C28" s="252"/>
       <c r="D28" s="252"/>
@@ -5398,7 +5398,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="306"/>
+      <c r="A29" s="318"/>
       <c r="B29" s="26"/>
       <c r="C29" s="252"/>
       <c r="D29" s="252"/>
@@ -5410,7 +5410,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="306"/>
+      <c r="A30" s="318"/>
       <c r="B30" s="26"/>
       <c r="C30" s="252"/>
       <c r="D30" s="252"/>
@@ -5422,7 +5422,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="306"/>
+      <c r="A31" s="318"/>
       <c r="B31" s="26"/>
       <c r="C31" s="252"/>
       <c r="D31" s="252"/>
@@ -5434,7 +5434,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="306"/>
+      <c r="A32" s="318"/>
       <c r="B32" s="26"/>
       <c r="C32" s="252"/>
       <c r="D32" s="252"/>
@@ -5446,7 +5446,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="306"/>
+      <c r="A33" s="318"/>
       <c r="B33" s="26"/>
       <c r="C33" s="252"/>
       <c r="D33" s="255"/>
@@ -5458,7 +5458,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="306"/>
+      <c r="A34" s="318"/>
       <c r="B34" s="26"/>
       <c r="C34" s="252"/>
       <c r="D34" s="252"/>
@@ -5470,7 +5470,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="306"/>
+      <c r="A35" s="318"/>
       <c r="B35" s="26"/>
       <c r="C35" s="252"/>
       <c r="D35" s="252"/>
@@ -5482,7 +5482,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="306"/>
+      <c r="A36" s="318"/>
       <c r="B36" s="26"/>
       <c r="C36" s="252"/>
       <c r="D36" s="252"/>
@@ -5494,7 +5494,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="306"/>
+      <c r="A37" s="318"/>
       <c r="B37" s="26"/>
       <c r="C37" s="252"/>
       <c r="D37" s="252"/>
@@ -5506,7 +5506,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="306"/>
+      <c r="A38" s="318"/>
       <c r="B38" s="26"/>
       <c r="C38" s="252"/>
       <c r="D38" s="252"/>
@@ -5518,7 +5518,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="306"/>
+      <c r="A39" s="318"/>
       <c r="B39" s="26"/>
       <c r="C39" s="252"/>
       <c r="D39" s="252"/>
@@ -5530,7 +5530,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="306"/>
+      <c r="A40" s="318"/>
       <c r="B40" s="26"/>
       <c r="C40" s="252"/>
       <c r="D40" s="252"/>
@@ -5542,7 +5542,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="306"/>
+      <c r="A41" s="318"/>
       <c r="B41" s="26"/>
       <c r="C41" s="252"/>
       <c r="D41" s="252"/>
@@ -5554,7 +5554,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="306"/>
+      <c r="A42" s="318"/>
       <c r="B42" s="26"/>
       <c r="C42" s="252"/>
       <c r="D42" s="252"/>
@@ -5566,7 +5566,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="306"/>
+      <c r="A43" s="318"/>
       <c r="B43" s="26"/>
       <c r="C43" s="252"/>
       <c r="D43" s="252"/>
@@ -5578,7 +5578,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="306"/>
+      <c r="A44" s="318"/>
       <c r="B44" s="26"/>
       <c r="C44" s="252"/>
       <c r="D44" s="252"/>
@@ -5590,7 +5590,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="306"/>
+      <c r="A45" s="318"/>
       <c r="B45" s="26"/>
       <c r="C45" s="252"/>
       <c r="D45" s="252"/>
@@ -5602,7 +5602,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="306"/>
+      <c r="A46" s="318"/>
       <c r="B46" s="26"/>
       <c r="C46" s="252"/>
       <c r="D46" s="252"/>
@@ -5614,7 +5614,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="306"/>
+      <c r="A47" s="318"/>
       <c r="B47" s="26"/>
       <c r="C47" s="252"/>
       <c r="D47" s="252"/>
@@ -5626,7 +5626,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="306"/>
+      <c r="A48" s="318"/>
       <c r="B48" s="26"/>
       <c r="C48" s="252"/>
       <c r="D48" s="252"/>
@@ -5638,7 +5638,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="306"/>
+      <c r="A49" s="318"/>
       <c r="B49" s="26"/>
       <c r="C49" s="252"/>
       <c r="D49" s="252"/>
@@ -5650,7 +5650,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="306"/>
+      <c r="A50" s="318"/>
       <c r="B50" s="26"/>
       <c r="C50" s="252"/>
       <c r="D50" s="252"/>
@@ -5662,7 +5662,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="306"/>
+      <c r="A51" s="318"/>
       <c r="B51" s="26"/>
       <c r="C51" s="252"/>
       <c r="D51" s="252"/>
@@ -5674,7 +5674,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="306"/>
+      <c r="A52" s="318"/>
       <c r="B52" s="26"/>
       <c r="C52" s="252"/>
       <c r="D52" s="252"/>
@@ -5686,7 +5686,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="306"/>
+      <c r="A53" s="318"/>
       <c r="B53" s="26"/>
       <c r="C53" s="252"/>
       <c r="D53" s="252"/>
@@ -5698,7 +5698,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="306"/>
+      <c r="A54" s="318"/>
       <c r="B54" s="26"/>
       <c r="C54" s="252"/>
       <c r="D54" s="252"/>
@@ -5710,7 +5710,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="306"/>
+      <c r="A55" s="318"/>
       <c r="B55" s="26"/>
       <c r="C55" s="252"/>
       <c r="D55" s="252"/>
@@ -5721,7 +5721,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="306"/>
+      <c r="A56" s="318"/>
       <c r="B56" s="26"/>
       <c r="C56" s="252"/>
       <c r="D56" s="252"/>
@@ -5732,7 +5732,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="306"/>
+      <c r="A57" s="318"/>
       <c r="B57" s="26"/>
       <c r="C57" s="252"/>
       <c r="D57" s="252"/>
@@ -5743,7 +5743,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="306"/>
+      <c r="A58" s="318"/>
       <c r="B58" s="26"/>
       <c r="C58" s="252"/>
       <c r="D58" s="252"/>
@@ -5754,7 +5754,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="306"/>
+      <c r="A59" s="318"/>
       <c r="B59" s="26"/>
       <c r="C59" s="252"/>
       <c r="D59" s="252"/>
@@ -5765,7 +5765,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="306"/>
+      <c r="A60" s="318"/>
       <c r="B60" s="26"/>
       <c r="C60" s="252"/>
       <c r="D60" s="252"/>
@@ -5776,7 +5776,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="306"/>
+      <c r="A61" s="318"/>
       <c r="B61" s="26"/>
       <c r="C61" s="252"/>
       <c r="D61" s="252"/>
@@ -5787,7 +5787,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="306"/>
+      <c r="A62" s="318"/>
       <c r="B62" s="26"/>
       <c r="C62" s="252"/>
       <c r="D62" s="252"/>
@@ -5798,7 +5798,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="306"/>
+      <c r="A63" s="318"/>
       <c r="B63" s="26"/>
       <c r="C63" s="252"/>
       <c r="D63" s="252"/>
@@ -5809,7 +5809,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="306"/>
+      <c r="A64" s="318"/>
       <c r="B64" s="26"/>
       <c r="C64" s="252"/>
       <c r="D64" s="252"/>
@@ -5820,7 +5820,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="306"/>
+      <c r="A65" s="318"/>
       <c r="B65" s="26"/>
       <c r="C65" s="252"/>
       <c r="D65" s="252"/>
@@ -5831,7 +5831,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="306"/>
+      <c r="A66" s="318"/>
       <c r="B66" s="26"/>
       <c r="C66" s="252"/>
       <c r="D66" s="252"/>
@@ -5842,7 +5842,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="306"/>
+      <c r="A67" s="318"/>
       <c r="B67" s="26"/>
       <c r="C67" s="252"/>
       <c r="D67" s="252"/>
@@ -5853,7 +5853,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="306"/>
+      <c r="A68" s="318"/>
       <c r="B68" s="26"/>
       <c r="C68" s="252"/>
       <c r="D68" s="252"/>
@@ -5864,7 +5864,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="306"/>
+      <c r="A69" s="318"/>
       <c r="B69" s="26"/>
       <c r="C69" s="252"/>
       <c r="D69" s="252"/>
@@ -5875,7 +5875,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="306"/>
+      <c r="A70" s="318"/>
       <c r="B70" s="26"/>
       <c r="C70" s="252"/>
       <c r="D70" s="252"/>
@@ -5886,7 +5886,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="306"/>
+      <c r="A71" s="318"/>
       <c r="B71" s="26"/>
       <c r="C71" s="252"/>
       <c r="D71" s="252"/>
@@ -5897,7 +5897,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="306"/>
+      <c r="A72" s="318"/>
       <c r="B72" s="26"/>
       <c r="C72" s="252"/>
       <c r="D72" s="252"/>
@@ -5908,7 +5908,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="306"/>
+      <c r="A73" s="318"/>
       <c r="B73" s="26"/>
       <c r="C73" s="252"/>
       <c r="D73" s="252"/>
@@ -5919,7 +5919,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="306"/>
+      <c r="A74" s="318"/>
       <c r="B74" s="26"/>
       <c r="C74" s="252"/>
       <c r="D74" s="252"/>
@@ -5930,7 +5930,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="306"/>
+      <c r="A75" s="318"/>
       <c r="B75" s="26"/>
       <c r="C75" s="252"/>
       <c r="D75" s="252"/>
@@ -5941,7 +5941,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="306"/>
+      <c r="A76" s="318"/>
       <c r="B76" s="26"/>
       <c r="C76" s="252"/>
       <c r="D76" s="252"/>
@@ -5952,7 +5952,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="306"/>
+      <c r="A77" s="318"/>
       <c r="B77" s="26"/>
       <c r="C77" s="252"/>
       <c r="D77" s="252"/>
@@ -5963,7 +5963,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="306"/>
+      <c r="A78" s="318"/>
       <c r="B78" s="26"/>
       <c r="C78" s="252"/>
       <c r="D78" s="252"/>
@@ -5974,7 +5974,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="306"/>
+      <c r="A79" s="318"/>
       <c r="B79" s="26"/>
       <c r="C79" s="252"/>
       <c r="D79" s="252"/>
@@ -5986,7 +5986,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="306"/>
+      <c r="A80" s="318"/>
       <c r="B80" s="26"/>
       <c r="C80" s="252"/>
       <c r="D80" s="252"/>
@@ -5998,7 +5998,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="306"/>
+      <c r="A81" s="318"/>
       <c r="B81" s="26"/>
       <c r="C81" s="252"/>
       <c r="D81" s="252"/>
@@ -6010,7 +6010,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="306"/>
+      <c r="A82" s="318"/>
       <c r="B82" s="26"/>
       <c r="C82" s="252"/>
       <c r="D82" s="252"/>
@@ -6022,7 +6022,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="306"/>
+      <c r="A83" s="318"/>
       <c r="B83" s="31"/>
       <c r="C83" s="254">
         <f>SUM(C5:C72)</f>
@@ -6077,67 +6077,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="311" t="s">
+      <c r="A1" s="323" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="311"/>
-      <c r="E1" s="311"/>
-      <c r="F1" s="311"/>
-      <c r="G1" s="311"/>
-      <c r="H1" s="311"/>
-      <c r="I1" s="311"/>
-      <c r="J1" s="311"/>
-      <c r="K1" s="311"/>
-      <c r="L1" s="311"/>
-      <c r="M1" s="311"/>
-      <c r="N1" s="311"/>
-      <c r="O1" s="311"/>
-      <c r="P1" s="311"/>
-      <c r="Q1" s="311"/>
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
+      <c r="G1" s="323"/>
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="323"/>
+      <c r="L1" s="323"/>
+      <c r="M1" s="323"/>
+      <c r="N1" s="323"/>
+      <c r="O1" s="323"/>
+      <c r="P1" s="323"/>
+      <c r="Q1" s="323"/>
     </row>
     <row r="2" spans="1:24" s="65" customFormat="1" ht="18">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="324" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="312"/>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="312"/>
-      <c r="G2" s="312"/>
-      <c r="H2" s="312"/>
-      <c r="I2" s="312"/>
-      <c r="J2" s="312"/>
-      <c r="K2" s="312"/>
-      <c r="L2" s="312"/>
-      <c r="M2" s="312"/>
-      <c r="N2" s="312"/>
-      <c r="O2" s="312"/>
-      <c r="P2" s="312"/>
-      <c r="Q2" s="312"/>
+      <c r="B2" s="324"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="324"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="324"/>
+      <c r="K2" s="324"/>
+      <c r="L2" s="324"/>
+      <c r="M2" s="324"/>
+      <c r="N2" s="324"/>
+      <c r="O2" s="324"/>
+      <c r="P2" s="324"/>
+      <c r="Q2" s="324"/>
     </row>
     <row r="3" spans="1:24" s="66" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="313" t="s">
+      <c r="A3" s="325" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="314"/>
-      <c r="C3" s="314"/>
-      <c r="D3" s="314"/>
-      <c r="E3" s="314"/>
-      <c r="F3" s="314"/>
-      <c r="G3" s="314"/>
-      <c r="H3" s="314"/>
-      <c r="I3" s="314"/>
-      <c r="J3" s="314"/>
-      <c r="K3" s="314"/>
-      <c r="L3" s="314"/>
-      <c r="M3" s="314"/>
-      <c r="N3" s="314"/>
-      <c r="O3" s="314"/>
-      <c r="P3" s="314"/>
-      <c r="Q3" s="315"/>
+      <c r="B3" s="326"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326"/>
+      <c r="F3" s="326"/>
+      <c r="G3" s="326"/>
+      <c r="H3" s="326"/>
+      <c r="I3" s="326"/>
+      <c r="J3" s="326"/>
+      <c r="K3" s="326"/>
+      <c r="L3" s="326"/>
+      <c r="M3" s="326"/>
+      <c r="N3" s="326"/>
+      <c r="O3" s="326"/>
+      <c r="P3" s="326"/>
+      <c r="Q3" s="327"/>
       <c r="S3" s="49"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6146,52 +6146,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="316" t="s">
+      <c r="A4" s="328" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="318" t="s">
+      <c r="B4" s="330" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="307" t="s">
+      <c r="C4" s="319" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="307" t="s">
+      <c r="D4" s="319" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="307" t="s">
+      <c r="E4" s="319" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="307" t="s">
+      <c r="F4" s="319" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="307" t="s">
+      <c r="G4" s="319" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="307" t="s">
+      <c r="H4" s="319" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="307" t="s">
+      <c r="I4" s="319" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="307" t="s">
+      <c r="J4" s="319" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="307" t="s">
+      <c r="K4" s="319" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="307" t="s">
+      <c r="L4" s="319" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="307" t="s">
+      <c r="M4" s="319" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="307" t="s">
+      <c r="N4" s="319" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="309" t="s">
+      <c r="O4" s="321" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="320" t="s">
+      <c r="P4" s="332" t="s">
         <v>56</v>
       </c>
       <c r="Q4" s="126" t="s">
@@ -6204,22 +6204,22 @@
       <c r="W4" s="69"/>
     </row>
     <row r="5" spans="1:24" s="67" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="317"/>
-      <c r="B5" s="319"/>
-      <c r="C5" s="308"/>
-      <c r="D5" s="308"/>
-      <c r="E5" s="308"/>
-      <c r="F5" s="308"/>
-      <c r="G5" s="308"/>
-      <c r="H5" s="308"/>
-      <c r="I5" s="308"/>
-      <c r="J5" s="308"/>
-      <c r="K5" s="308"/>
-      <c r="L5" s="308"/>
-      <c r="M5" s="308"/>
-      <c r="N5" s="308"/>
-      <c r="O5" s="310"/>
-      <c r="P5" s="321"/>
+      <c r="A5" s="329"/>
+      <c r="B5" s="331"/>
+      <c r="C5" s="320"/>
+      <c r="D5" s="320"/>
+      <c r="E5" s="320"/>
+      <c r="F5" s="320"/>
+      <c r="G5" s="320"/>
+      <c r="H5" s="320"/>
+      <c r="I5" s="320"/>
+      <c r="J5" s="320"/>
+      <c r="K5" s="320"/>
+      <c r="L5" s="320"/>
+      <c r="M5" s="320"/>
+      <c r="N5" s="320"/>
+      <c r="O5" s="322"/>
+      <c r="P5" s="333"/>
       <c r="Q5" s="127" t="s">
         <v>42</v>
       </c>
@@ -9157,11 +9157,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9176,6 +9171,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9216,15 +9216,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="339" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
+      <c r="B1" s="339"/>
+      <c r="C1" s="339"/>
+      <c r="D1" s="339"/>
+      <c r="E1" s="339"/>
+      <c r="F1" s="339"/>
+      <c r="G1" s="339"/>
       <c r="H1" s="60"/>
       <c r="I1" s="143"/>
       <c r="J1" s="143"/>
@@ -9317,15 +9317,15 @@
       <c r="CS1" s="138"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="328" t="s">
+      <c r="A2" s="340" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="328"/>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
-      <c r="F2" s="328"/>
-      <c r="G2" s="328"/>
+      <c r="B2" s="340"/>
+      <c r="C2" s="340"/>
+      <c r="D2" s="340"/>
+      <c r="E2" s="340"/>
+      <c r="F2" s="340"/>
+      <c r="G2" s="340"/>
       <c r="H2" s="60"/>
       <c r="I2" s="143"/>
       <c r="J2" s="143"/>
@@ -9418,15 +9418,15 @@
       <c r="CS2" s="138"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="329" t="s">
+      <c r="A3" s="341" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="329"/>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="329"/>
-      <c r="F3" s="329"/>
-      <c r="G3" s="329"/>
+      <c r="B3" s="341"/>
+      <c r="C3" s="341"/>
+      <c r="D3" s="341"/>
+      <c r="E3" s="341"/>
+      <c r="F3" s="341"/>
+      <c r="G3" s="341"/>
       <c r="H3" s="60"/>
       <c r="I3" s="143"/>
       <c r="J3" s="143"/>
@@ -12754,12 +12754,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="133"/>
-      <c r="B35" s="324" t="s">
+      <c r="B35" s="336" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="324"/>
-      <c r="D35" s="324"/>
-      <c r="E35" s="324"/>
+      <c r="C35" s="336"/>
+      <c r="D35" s="336"/>
+      <c r="E35" s="336"/>
       <c r="F35" s="134"/>
       <c r="G35" s="139"/>
       <c r="H35" s="139"/>
@@ -13578,10 +13578,10 @@
       <c r="D43" s="208"/>
       <c r="E43" s="176"/>
       <c r="F43" s="134"/>
-      <c r="G43" s="325"/>
-      <c r="H43" s="325"/>
-      <c r="I43" s="325"/>
-      <c r="J43" s="325"/>
+      <c r="G43" s="337"/>
+      <c r="H43" s="337"/>
+      <c r="I43" s="337"/>
+      <c r="J43" s="337"/>
       <c r="K43" s="60"/>
       <c r="L43" s="143"/>
       <c r="M43" s="60"/>
@@ -21453,11 +21453,11 @@
       <c r="CS118" s="138"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="322" t="s">
+      <c r="A119" s="334" t="s">
         <v>28</v>
       </c>
-      <c r="B119" s="323"/>
-      <c r="C119" s="326"/>
+      <c r="B119" s="335"/>
+      <c r="C119" s="338"/>
       <c r="D119" s="214">
         <f>SUM(D37:D118)</f>
         <v>1889360</v>
@@ -21660,11 +21660,11 @@
       <c r="CS120" s="138"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="322" t="s">
+      <c r="A121" s="334" t="s">
         <v>29</v>
       </c>
-      <c r="B121" s="323"/>
-      <c r="C121" s="323"/>
+      <c r="B121" s="335"/>
+      <c r="C121" s="335"/>
       <c r="D121" s="214">
         <f>D119+M121</f>
         <v>1889360</v>
@@ -32899,7 +32899,7 @@
   <dimension ref="A1:Q219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -32915,35 +32915,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25">
-      <c r="A1" s="330" t="s">
+      <c r="A1" s="342" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="331"/>
-      <c r="C1" s="331"/>
-      <c r="D1" s="331"/>
-      <c r="E1" s="332"/>
+      <c r="B1" s="343"/>
+      <c r="C1" s="343"/>
+      <c r="D1" s="343"/>
+      <c r="E1" s="344"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="21.75">
-      <c r="A2" s="336" t="s">
+      <c r="A2" s="351" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="337"/>
-      <c r="C2" s="337"/>
-      <c r="D2" s="337"/>
-      <c r="E2" s="338"/>
+      <c r="B2" s="352"/>
+      <c r="C2" s="352"/>
+      <c r="D2" s="352"/>
+      <c r="E2" s="353"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="23.25">
-      <c r="A3" s="333" t="s">
+      <c r="A3" s="345" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="334"/>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="335"/>
+      <c r="B3" s="346"/>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="347"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -32958,13 +32958,13 @@
       <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="23.25">
-      <c r="A4" s="339" t="s">
+      <c r="A4" s="354" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="340"/>
-      <c r="C4" s="340"/>
-      <c r="D4" s="340"/>
-      <c r="E4" s="341"/>
+      <c r="B4" s="355"/>
+      <c r="C4" s="355"/>
+      <c r="D4" s="355"/>
+      <c r="E4" s="356"/>
       <c r="F4" s="5"/>
       <c r="G4" s="43"/>
       <c r="H4" s="7"/>
@@ -33260,13 +33260,13 @@
       <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:17" ht="22.5" thickBot="1">
-      <c r="A16" s="346"/>
-      <c r="B16" s="347" t="s">
+      <c r="A16" s="307"/>
+      <c r="B16" s="308" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="348"/>
-      <c r="D16" s="348"/>
-      <c r="E16" s="349"/>
+      <c r="C16" s="309"/>
+      <c r="D16" s="309"/>
+      <c r="E16" s="310"/>
       <c r="F16" s="5"/>
       <c r="G16" s="9"/>
       <c r="H16" s="7"/>
@@ -33281,13 +33281,13 @@
       <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:17" ht="23.25" thickBot="1">
-      <c r="A17" s="354" t="s">
+      <c r="A17" s="348" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="355"/>
-      <c r="C17" s="355"/>
-      <c r="D17" s="355"/>
-      <c r="E17" s="356"/>
+      <c r="B17" s="349"/>
+      <c r="C17" s="349"/>
+      <c r="D17" s="349"/>
+      <c r="E17" s="350"/>
       <c r="F17" s="5"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7"/>
@@ -33302,17 +33302,17 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" ht="21.75">
-      <c r="A18" s="350" t="s">
+      <c r="A18" s="311" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="351">
+      <c r="B18" s="312">
         <v>60000</v>
       </c>
-      <c r="C18" s="352"/>
+      <c r="C18" s="313"/>
       <c r="D18" s="285" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="353">
+      <c r="E18" s="314">
         <v>214150</v>
       </c>
       <c r="F18" s="5"/>
@@ -33457,10 +33457,10 @@
       <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="1:17" ht="22.5" thickBot="1">
-      <c r="A24" s="344" t="s">
+      <c r="A24" s="305" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="345">
+      <c r="B24" s="306">
         <v>200000</v>
       </c>
       <c r="C24" s="300"/>
@@ -33483,8 +33483,8 @@
       <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:17" ht="21.75">
-      <c r="A25" s="342"/>
-      <c r="B25" s="343"/>
+      <c r="A25" s="303"/>
+      <c r="B25" s="304"/>
       <c r="C25" s="284"/>
       <c r="D25" s="285"/>
       <c r="E25" s="286"/>
